--- a/Dados Fenofibrato.xlsx
+++ b/Dados Fenofibrato.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P&amp;D Hynova\Farmacotécnico\ESTAGIÁRIA(O)\Guilherme\Projeto Estágio\Execução\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F694BD-7575-4B21-BE8B-143CD5C1E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8E171-4DD0-4C2D-A640-ED57536906E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="60">
   <si>
     <t>LOTES</t>
   </si>
@@ -435,12 +435,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +442,12 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,12 +1572,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:AH29"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1586,7 +1585,7 @@
     <col min="12" max="12" width="8.7265625" style="3"/>
     <col min="13" max="13" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.81640625" style="33" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="8.7265625" style="3"/>
     <col min="20" max="20" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.36328125" bestFit="1" customWidth="1"/>
@@ -1636,10 +1635,10 @@
       <c r="N1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="31" t="s">
         <v>59</v>
       </c>
       <c r="Q1" s="5"/>
@@ -1693,7 +1692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1731,23 +1730,23 @@
         <f>50*LOG((1+(1/9)*T2)^(-0.5)*100)</f>
         <v>100</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="30">
         <f>0+(50-0)/(C2-0)*$C$1</f>
         <v>1.5691689681144867</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="30">
         <f>(M2-$M$2)^2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="32">
         <f>$C$1+(90-C2)/(D2-C2)*($D$1-$C$1)</f>
         <v>4.5211102423768565</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2" s="32">
         <f>(O2-$O$2)^2</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="32"/>
+      <c r="Q2" s="30"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
@@ -1795,7 +1794,7 @@
         <v>104.25</v>
       </c>
       <c r="L3" s="9">
-        <f>50*LOG((1+(1/9)*AB3)^(-0.5)*100)</f>
+        <f t="shared" ref="L3:L29" si="0">50*LOG((1+(1/9)*AB3)^(-0.5)*100)</f>
         <v>72.557945567124321</v>
       </c>
       <c r="M3" s="4">
@@ -1817,43 +1816,43 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="9">
-        <f>(C$2-C3)^2</f>
+        <f t="shared" ref="S3:S29" si="1">(C$2-C3)^2</f>
         <v>13.912899999999924</v>
       </c>
       <c r="T3" s="9">
-        <f>(D$2-D3)^2</f>
+        <f t="shared" ref="T3:T29" si="2">(D$2-D3)^2</f>
         <v>19.096900000000041</v>
       </c>
       <c r="U3" s="9">
-        <f>(E$2-E3)^2</f>
+        <f t="shared" ref="U3:U29" si="3">(E$2-E3)^2</f>
         <v>13.987600000000068</v>
       </c>
       <c r="V3" s="9">
-        <f>(F$2-F3)^2</f>
+        <f t="shared" ref="V3:V29" si="4">(F$2-F3)^2</f>
         <v>6.7599999999999705</v>
       </c>
       <c r="W3" s="9">
-        <f>(G$2-G3)^2</f>
+        <f t="shared" ref="W3:W29" si="5">(G$2-G3)^2</f>
         <v>0.50409999999999111</v>
       </c>
       <c r="X3" s="9">
-        <f>(H$2-H3)^2</f>
+        <f t="shared" ref="X3:X29" si="6">(H$2-H3)^2</f>
         <v>1.6128999999999898</v>
       </c>
       <c r="Y3" s="9">
-        <f>(I$2-I3)^2</f>
+        <f t="shared" ref="Y3:Y29" si="7">(I$2-I3)^2</f>
         <v>9</v>
       </c>
       <c r="Z3" s="9">
-        <f>(J$2-J3)^2</f>
+        <f t="shared" ref="Z3:Z29" si="8">(J$2-J3)^2</f>
         <v>17.388900000000014</v>
       </c>
       <c r="AA3" s="9">
-        <f>(K$2-K3)^2</f>
+        <f t="shared" ref="AA3:AA29" si="9">(K$2-K3)^2</f>
         <v>21.436899999999959</v>
       </c>
       <c r="AB3" s="9">
-        <f>SUM(S3:AA3)</f>
+        <f t="shared" ref="AB3:AB29" si="10">SUM(S3:AA3)</f>
         <v>103.70019999999994</v>
       </c>
       <c r="AC3" s="10">
@@ -1910,15 +1909,15 @@
         <v>100.93</v>
       </c>
       <c r="L4" s="9">
-        <f>50*LOG((1+(1/9)*AB4)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>64.213060121011097</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M29" si="0">0+(50-0)/(C4-0)*$C$1</f>
+        <f t="shared" ref="M4:M29" si="11">0+(50-0)/(C4-0)*$C$1</f>
         <v>1.7803731662156388</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:N29" si="1">(M4-$M$2)^2</f>
+        <f t="shared" ref="N4:N29" si="12">(M4-$M$2)^2</f>
         <v>4.4607213295550702E-2</v>
       </c>
       <c r="O4" s="27">
@@ -1926,49 +1925,49 @@
         <v>7.0847176079734222</v>
       </c>
       <c r="P4" s="27">
-        <f t="shared" ref="P4:P29" si="2">(O4-$O$2)^2</f>
+        <f t="shared" ref="P4:P29" si="13">(O4-$O$2)^2</f>
         <v>6.5720827249409632</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="9">
-        <f>(C$2-C4)^2</f>
+        <f t="shared" si="1"/>
         <v>89.302500000000052</v>
       </c>
       <c r="T4" s="9">
-        <f>(D$2-D4)^2</f>
+        <f t="shared" si="2"/>
         <v>58.06440000000007</v>
       </c>
       <c r="U4" s="9">
-        <f>(E$2-E4)^2</f>
+        <f t="shared" si="3"/>
         <v>40.576900000000059</v>
       </c>
       <c r="V4" s="9">
-        <f>(F$2-F4)^2</f>
+        <f t="shared" si="4"/>
         <v>27.984099999999916</v>
       </c>
       <c r="W4" s="9">
-        <f>(G$2-G4)^2</f>
+        <f t="shared" si="5"/>
         <v>12.110399999999929</v>
       </c>
       <c r="X4" s="9">
-        <f>(H$2-H4)^2</f>
+        <f t="shared" si="6"/>
         <v>3.2399999999999896</v>
       </c>
       <c r="Y4" s="9">
-        <f>(I$2-I4)^2</f>
+        <f t="shared" si="7"/>
         <v>0.10890000000000825</v>
       </c>
       <c r="Z4" s="9">
-        <f>(J$2-J4)^2</f>
+        <f t="shared" si="8"/>
         <v>0.9604000000000078</v>
       </c>
       <c r="AA4" s="9">
-        <f>(K$2-K4)^2</f>
+        <f t="shared" si="9"/>
         <v>1.716100000000006</v>
       </c>
       <c r="AB4" s="9">
-        <f>SUM(S4:AA4)</f>
+        <f t="shared" si="10"/>
         <v>234.06370000000007</v>
       </c>
       <c r="AC4" s="10">
@@ -1990,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -2025,15 +2024,15 @@
         <v>98.43</v>
       </c>
       <c r="L5" s="9">
-        <f>50*LOG((1+(1/9)*AB5)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>59.575594675513756</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.7436183568140606</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>3.0432589217655036E-2</v>
       </c>
       <c r="O5" s="27">
@@ -2041,49 +2040,49 @@
         <v>9.2906574394463686</v>
       </c>
       <c r="P5" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>22.748580465073637</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="9">
-        <f>(C$2-C5)^2</f>
+        <f t="shared" si="1"/>
         <v>63.520899999999983</v>
       </c>
       <c r="T5" s="9">
-        <f>(D$2-D5)^2</f>
+        <f t="shared" si="2"/>
         <v>86.304100000000119</v>
       </c>
       <c r="U5" s="9">
-        <f>(E$2-E5)^2</f>
+        <f t="shared" si="3"/>
         <v>79.923599999999965</v>
       </c>
       <c r="V5" s="9">
-        <f>(F$2-F5)^2</f>
+        <f t="shared" si="4"/>
         <v>63.680400000000063</v>
       </c>
       <c r="W5" s="9">
-        <f>(G$2-G5)^2</f>
+        <f t="shared" si="5"/>
         <v>39.18759999999989</v>
       </c>
       <c r="X5" s="9">
-        <f>(H$2-H5)^2</f>
+        <f t="shared" si="6"/>
         <v>19.272100000000005</v>
       </c>
       <c r="Y5" s="9">
-        <f>(I$2-I5)^2</f>
+        <f t="shared" si="7"/>
         <v>7.6176000000000279</v>
       </c>
       <c r="Z5" s="9">
-        <f>(J$2-J5)^2</f>
+        <f t="shared" si="8"/>
         <v>2.6568999999999852</v>
       </c>
       <c r="AA5" s="9">
-        <f>(K$2-K5)^2</f>
+        <f t="shared" si="9"/>
         <v>1.4160999999999946</v>
       </c>
       <c r="AB5" s="9">
-        <f>SUM(S5:AA5)</f>
+        <f t="shared" si="10"/>
         <v>363.5793000000001</v>
       </c>
       <c r="AC5" s="10">
@@ -2105,7 +2104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>41</v>
       </c>
@@ -2140,15 +2139,15 @@
         <v>98.01</v>
       </c>
       <c r="L6" s="9">
-        <f>50*LOG((1+(1/9)*AB6)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>57.174269597054874</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.8333822235259607</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6.9808644335128803E-2</v>
       </c>
       <c r="O6" s="27">
@@ -2156,49 +2155,49 @@
         <v>9.3150684931506884</v>
       </c>
       <c r="P6" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>22.982035710162499</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="9">
-        <f>(C$2-C6)^2</f>
+        <f t="shared" si="1"/>
         <v>131.79039999999978</v>
       </c>
       <c r="T6" s="9">
-        <f>(D$2-D6)^2</f>
+        <f t="shared" si="2"/>
         <v>101.60639999999997</v>
       </c>
       <c r="U6" s="9">
-        <f>(E$2-E6)^2</f>
+        <f t="shared" si="3"/>
         <v>80.820100000000167</v>
       </c>
       <c r="V6" s="9">
-        <f>(F$2-F6)^2</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="W6" s="9">
-        <f>(G$2-G6)^2</f>
+        <f t="shared" si="5"/>
         <v>39.438400000000016</v>
       </c>
       <c r="X6" s="9">
-        <f>(H$2-H6)^2</f>
+        <f t="shared" si="6"/>
         <v>21.529600000000006</v>
       </c>
       <c r="Y6" s="9">
-        <f>(I$2-I6)^2</f>
+        <f t="shared" si="7"/>
         <v>10.304100000000052</v>
       </c>
       <c r="Z6" s="9">
-        <f>(J$2-J6)^2</f>
+        <f t="shared" si="8"/>
         <v>3.7248999999999715</v>
       </c>
       <c r="AA6" s="9">
-        <f>(K$2-K6)^2</f>
+        <f t="shared" si="9"/>
         <v>2.5920999999999981</v>
       </c>
       <c r="AB6" s="9">
-        <f>SUM(S6:AA6)</f>
+        <f t="shared" si="10"/>
         <v>455.80599999999998</v>
       </c>
       <c r="AC6" s="10">
@@ -2255,15 +2254,15 @@
         <v>111.71</v>
       </c>
       <c r="L7" s="9">
-        <f>50*LOG((1+(1/9)*AB7)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>49.217311410336116</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.5830800405268493</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>1.9351793566199462E-4</v>
       </c>
       <c r="O7" s="27">
@@ -2271,49 +2270,49 @@
         <v>3.8616181549087321</v>
       </c>
       <c r="P7" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0.43492981343306436</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="9">
-        <f>(C$2-C7)^2</f>
+        <f t="shared" si="1"/>
         <v>0.49000000000000399</v>
       </c>
       <c r="T7" s="9">
-        <f>(D$2-D7)^2</f>
+        <f t="shared" si="2"/>
         <v>45.968400000000017</v>
       </c>
       <c r="U7" s="9">
-        <f>(E$2-E7)^2</f>
+        <f t="shared" si="3"/>
         <v>90.25</v>
       </c>
       <c r="V7" s="9">
-        <f>(F$2-F7)^2</f>
+        <f t="shared" si="4"/>
         <v>114.49000000000007</v>
       </c>
       <c r="W7" s="9">
-        <f>(G$2-G7)^2</f>
+        <f t="shared" si="5"/>
         <v>129.2769000000001</v>
       </c>
       <c r="X7" s="9">
-        <f>(H$2-H7)^2</f>
+        <f t="shared" si="6"/>
         <v>141.84809999999993</v>
       </c>
       <c r="Y7" s="9">
-        <f>(I$2-I7)^2</f>
+        <f t="shared" si="7"/>
         <v>139.47609999999972</v>
       </c>
       <c r="Z7" s="9">
-        <f>(J$2-J7)^2</f>
+        <f t="shared" si="8"/>
         <v>150.30760000000012</v>
       </c>
       <c r="AA7" s="9">
-        <f>(K$2-K7)^2</f>
+        <f t="shared" si="9"/>
         <v>146.16809999999973</v>
       </c>
       <c r="AB7" s="9">
-        <f>SUM(S7:AA7)</f>
+        <f t="shared" si="10"/>
         <v>958.2751999999997</v>
       </c>
       <c r="AC7" s="2">
@@ -2370,15 +2369,15 @@
         <v>100.65</v>
       </c>
       <c r="L8" s="9">
-        <f>50*LOG((1+(1/9)*AB8)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>63.008378268033695</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.7954610744039068</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5.1208117368902198E-2</v>
       </c>
       <c r="O8" s="27">
@@ -2386,49 +2385,49 @@
         <v>7.4190800681431011</v>
       </c>
       <c r="P8" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>8.3982291110516378</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="9">
-        <f>(C$2-C8)^2</f>
+        <f t="shared" si="1"/>
         <v>100.80159999999984</v>
       </c>
       <c r="T8" s="9">
-        <f>(D$2-D8)^2</f>
+        <f t="shared" si="2"/>
         <v>66.096900000000161</v>
       </c>
       <c r="U8" s="9">
-        <f>(E$2-E8)^2</f>
+        <f t="shared" si="3"/>
         <v>44.622400000000091</v>
       </c>
       <c r="V8" s="9">
-        <f>(F$2-F8)^2</f>
+        <f t="shared" si="4"/>
         <v>30.25</v>
       </c>
       <c r="W8" s="9">
-        <f>(G$2-G8)^2</f>
+        <f t="shared" si="5"/>
         <v>13.912899999999924</v>
       </c>
       <c r="X8" s="9">
-        <f>(H$2-H8)^2</f>
+        <f t="shared" si="6"/>
         <v>4.8841000000000347</v>
       </c>
       <c r="Y8" s="9">
-        <f>(I$2-I8)^2</f>
+        <f t="shared" si="7"/>
         <v>0.54760000000001341</v>
       </c>
       <c r="Z8" s="9">
-        <f>(J$2-J8)^2</f>
+        <f t="shared" si="8"/>
         <v>0.40960000000000074</v>
       </c>
       <c r="AA8" s="9">
-        <f>(K$2-K8)^2</f>
+        <f t="shared" si="9"/>
         <v>1.0609000000000024</v>
       </c>
       <c r="AB8" s="9">
-        <f>SUM(S8:AA8)</f>
+        <f t="shared" si="10"/>
         <v>262.58600000000007</v>
       </c>
       <c r="AC8" s="10">
@@ -2485,65 +2484,65 @@
         <v>102.59</v>
       </c>
       <c r="L9" s="9">
-        <f>50*LOG((1+(1/9)*AB9)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>62.769919137510669</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.8213609208800818</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6.3600781039724164E-2</v>
       </c>
       <c r="O9" s="27">
-        <f t="shared" ref="O4:O29" si="3">$D$1+(90-D9)/(E9-D9)*($E$1-$D$1)</f>
+        <f t="shared" ref="O9:O28" si="14">$D$1+(90-D9)/(E9-D9)*($E$1-$D$1)</f>
         <v>7.1966205837173556</v>
       </c>
       <c r="P9" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>7.1583555866199537</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="9">
-        <f>(C$2-C9)^2</f>
+        <f t="shared" si="1"/>
         <v>121.66090000000003</v>
       </c>
       <c r="T9" s="9">
-        <f>(D$2-D9)^2</f>
+        <f t="shared" si="2"/>
         <v>66.748900000000035</v>
       </c>
       <c r="U9" s="9">
-        <f>(E$2-E9)^2</f>
+        <f t="shared" si="3"/>
         <v>36.966399999999979</v>
       </c>
       <c r="V9" s="9">
-        <f>(F$2-F9)^2</f>
+        <f t="shared" si="4"/>
         <v>21.436899999999959</v>
       </c>
       <c r="W9" s="9">
-        <f>(G$2-G9)^2</f>
+        <f t="shared" si="5"/>
         <v>5.9048999999999641</v>
       </c>
       <c r="X9" s="9">
-        <f>(H$2-H9)^2</f>
+        <f t="shared" si="6"/>
         <v>0.22089999999999893</v>
       </c>
       <c r="Y9" s="9">
-        <f>(I$2-I9)^2</f>
+        <f t="shared" si="7"/>
         <v>1.1448999999999854</v>
       </c>
       <c r="Z9" s="9">
-        <f>(J$2-J9)^2</f>
+        <f t="shared" si="8"/>
         <v>5.7121000000000031</v>
       </c>
       <c r="AA9" s="9">
-        <f>(K$2-K9)^2</f>
+        <f t="shared" si="9"/>
         <v>8.8208999999999929</v>
       </c>
       <c r="AB9" s="9">
-        <f>SUM(S9:AA9)</f>
+        <f t="shared" si="10"/>
         <v>268.61679999999996</v>
       </c>
       <c r="AC9" s="10">
@@ -2565,7 +2564,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>47</v>
       </c>
@@ -2600,65 +2599,65 @@
         <v>100.47</v>
       </c>
       <c r="L10" s="9">
-        <f>50*LOG((1+(1/9)*AB10)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>74.079189419938956</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.7600675865953253</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>3.6442282537892758E-2</v>
       </c>
       <c r="O10" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5.2920560747663554</v>
       </c>
       <c r="P10" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0.59435747647873727</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="9">
-        <f>(C$2-C10)^2</f>
+        <f t="shared" si="1"/>
         <v>74.649600000000007</v>
       </c>
       <c r="T10" s="9">
-        <f>(D$2-D10)^2</f>
+        <f t="shared" si="2"/>
         <v>10.240000000000018</v>
       </c>
       <c r="U10" s="9">
-        <f>(E$2-E10)^2</f>
+        <f t="shared" si="3"/>
         <v>1.4400000000000068</v>
       </c>
       <c r="V10" s="9">
-        <f>(F$2-F10)^2</f>
+        <f t="shared" si="4"/>
         <v>9.6100000000001407E-2</v>
       </c>
       <c r="W10" s="9">
-        <f>(G$2-G10)^2</f>
+        <f t="shared" si="5"/>
         <v>2.5599999999998908E-2</v>
       </c>
       <c r="X10" s="9">
-        <f>(H$2-H10)^2</f>
+        <f t="shared" si="6"/>
         <v>0.43559999999999549</v>
       </c>
       <c r="Y10" s="9">
-        <f>(I$2-I10)^2</f>
+        <f t="shared" si="7"/>
         <v>0.33639999999999803</v>
       </c>
       <c r="Z10" s="9">
-        <f>(J$2-J10)^2</f>
+        <f t="shared" si="8"/>
         <v>1.0201000000000104</v>
       </c>
       <c r="AA10" s="9">
-        <f>(K$2-K10)^2</f>
+        <f t="shared" si="9"/>
         <v>0.72249999999999037</v>
       </c>
       <c r="AB10" s="9">
-        <f>SUM(S10:AA10)</f>
+        <f t="shared" si="10"/>
         <v>88.965900000000047</v>
       </c>
       <c r="AC10" s="2">
@@ -2680,7 +2679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>48</v>
       </c>
@@ -2715,65 +2714,65 @@
         <v>103.54</v>
       </c>
       <c r="L11" s="9">
-        <f>50*LOG((1+(1/9)*AB11)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>68.457414554680724</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.7453225356045796</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>3.1030079339486722E-2</v>
       </c>
       <c r="O11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6.3493377483443716</v>
       </c>
       <c r="P11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.3424158135762001</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="9">
-        <f>(C$2-C11)^2</f>
+        <f t="shared" si="1"/>
         <v>64.641599999999869</v>
       </c>
       <c r="T11" s="9">
-        <f>(D$2-D11)^2</f>
+        <f t="shared" si="2"/>
         <v>32.604100000000088</v>
       </c>
       <c r="U11" s="9">
-        <f>(E$2-E11)^2</f>
+        <f t="shared" si="3"/>
         <v>16.728100000000026</v>
       </c>
       <c r="V11" s="9">
-        <f>(F$2-F11)^2</f>
+        <f t="shared" si="4"/>
         <v>7.9523999999999617</v>
       </c>
       <c r="W11" s="9">
-        <f>(G$2-G11)^2</f>
+        <f t="shared" si="5"/>
         <v>0.92159999999998798</v>
       </c>
       <c r="X11" s="9">
-        <f>(H$2-H11)^2</f>
+        <f t="shared" si="6"/>
         <v>0.35999999999999316</v>
       </c>
       <c r="Y11" s="9">
-        <f>(I$2-I11)^2</f>
+        <f t="shared" si="7"/>
         <v>4.4520999999999979</v>
       </c>
       <c r="Z11" s="9">
-        <f>(J$2-J11)^2</f>
+        <f t="shared" si="8"/>
         <v>12.390400000000072</v>
       </c>
       <c r="AA11" s="9">
-        <f>(K$2-K11)^2</f>
+        <f t="shared" si="9"/>
         <v>15.366400000000013</v>
       </c>
       <c r="AB11" s="9">
-        <f>SUM(S11:AA11)</f>
+        <f t="shared" si="10"/>
         <v>155.41669999999999</v>
       </c>
       <c r="AC11" s="10">
@@ -2795,7 +2794,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>48</v>
       </c>
@@ -2830,65 +2829,65 @@
         <v>101.8</v>
       </c>
       <c r="L12" s="9">
-        <f>50*LOG((1+(1/9)*AB12)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>64.158549388165426</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.8355359765051396</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>7.0951383158986137E-2</v>
       </c>
       <c r="O12" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>7.0108695652173818</v>
       </c>
       <c r="P12" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>6.1989014856713105</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="9">
-        <f>(C$2-C12)^2</f>
+        <f t="shared" si="1"/>
         <v>133.63360000000006</v>
       </c>
       <c r="T12" s="9">
-        <f>(D$2-D12)^2</f>
+        <f t="shared" si="2"/>
         <v>7.9524000000000417</v>
       </c>
       <c r="U12" s="9">
-        <f>(E$2-E12)^2</f>
+        <f t="shared" si="3"/>
         <v>45.968400000000017</v>
       </c>
       <c r="V12" s="9">
-        <f>(F$2-F12)^2</f>
+        <f t="shared" si="4"/>
         <v>28.622499999999938</v>
       </c>
       <c r="W12" s="9">
-        <f>(G$2-G12)^2</f>
+        <f t="shared" si="5"/>
         <v>10.176099999999986</v>
       </c>
       <c r="X12" s="9">
-        <f>(H$2-H12)^2</f>
+        <f t="shared" si="6"/>
         <v>1.5376000000000225</v>
       </c>
       <c r="Y12" s="9">
-        <f>(I$2-I12)^2</f>
+        <f t="shared" si="7"/>
         <v>8.4099999999995387E-2</v>
       </c>
       <c r="Z12" s="9">
-        <f>(J$2-J12)^2</f>
+        <f t="shared" si="8"/>
         <v>2.5600000000000271</v>
       </c>
       <c r="AA12" s="9">
-        <f>(K$2-K12)^2</f>
+        <f t="shared" si="9"/>
         <v>4.7523999999999678</v>
       </c>
       <c r="AB12" s="9">
-        <f>SUM(S12:AA12)</f>
+        <f t="shared" si="10"/>
         <v>235.28710000000007</v>
       </c>
       <c r="AC12" s="10">
@@ -2910,7 +2909,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>49</v>
       </c>
@@ -2944,76 +2943,88 @@
       <c r="K13" s="26">
         <v>101.51</v>
       </c>
-      <c r="L13" s="31">
-        <f>50*LOG((1+(1/9)*AB13)^(-0.5)*100)</f>
+      <c r="L13" s="29">
+        <f t="shared" si="0"/>
         <v>14.231498384528942</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>52.083333333333343</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>2551.680801516346</v>
       </c>
       <c r="O13" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>21.614539306847</v>
       </c>
       <c r="P13" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>292.18531718207265</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
       <c r="S13" s="9">
-        <f>(C$2-C13)^2</f>
+        <f t="shared" si="1"/>
         <v>5969.1075999999985</v>
       </c>
       <c r="T13" s="9">
-        <f>(D$2-D13)^2</f>
+        <f t="shared" si="2"/>
         <v>6572.344900000001</v>
       </c>
       <c r="U13" s="9">
-        <f>(E$2-E13)^2</f>
+        <f t="shared" si="3"/>
         <v>5425.7955999999995</v>
       </c>
       <c r="V13" s="9">
-        <f>(F$2-F13)^2</f>
+        <f t="shared" si="4"/>
         <v>3942.5841</v>
       </c>
       <c r="W13" s="9">
-        <f>(G$2-G13)^2</f>
+        <f t="shared" si="5"/>
         <v>1628.1224999999995</v>
       </c>
       <c r="X13" s="9">
-        <f>(H$2-H13)^2</f>
+        <f t="shared" si="6"/>
         <v>591.94889999999987</v>
       </c>
       <c r="Y13" s="9">
-        <f>(I$2-I13)^2</f>
+        <f t="shared" si="7"/>
         <v>118.81000000000013</v>
       </c>
       <c r="Z13" s="9">
-        <f>(J$2-J13)^2</f>
+        <f t="shared" si="8"/>
         <v>3.8415999999999757</v>
       </c>
       <c r="AA13" s="9">
-        <f>(K$2-K13)^2</f>
+        <f t="shared" si="9"/>
         <v>3.5721000000000021</v>
       </c>
       <c r="AB13" s="9">
-        <f>SUM(S13:AA13)</f>
+        <f t="shared" si="10"/>
         <v>24256.127299999996</v>
       </c>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-    </row>
-    <row r="14" spans="1:34" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AC13" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>24</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>50</v>
       </c>
@@ -3047,76 +3058,88 @@
       <c r="K14" s="26">
         <v>102.88</v>
       </c>
-      <c r="L14" s="31">
-        <f>50*LOG((1+(1/9)*AB14)^(-0.5)*100)</f>
+      <c r="L14" s="29">
+        <f t="shared" si="0"/>
         <v>23.315200138517145</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>14.204545454545453</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>159.65273895385258</v>
       </c>
       <c r="O14" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>10.485427333595904</v>
       </c>
       <c r="P14" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>35.573078364607646</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="9">
-        <f>(C$2-C14)^2</f>
+        <f t="shared" si="1"/>
         <v>5021.1395999999995</v>
       </c>
       <c r="T14" s="9">
-        <f>(D$2-D14)^2</f>
+        <f t="shared" si="2"/>
         <v>3382.5856000000003</v>
       </c>
       <c r="U14" s="9">
-        <f>(E$2-E14)^2</f>
+        <f t="shared" si="3"/>
         <v>1383.0961000000004</v>
       </c>
       <c r="V14" s="9">
-        <f>(F$2-F14)^2</f>
+        <f t="shared" si="4"/>
         <v>549.43359999999984</v>
       </c>
       <c r="W14" s="9">
-        <f>(G$2-G14)^2</f>
+        <f t="shared" si="5"/>
         <v>123.87689999999989</v>
       </c>
       <c r="X14" s="9">
-        <f>(H$2-H14)^2</f>
+        <f t="shared" si="6"/>
         <v>26.3169000000001</v>
       </c>
       <c r="Y14" s="9">
-        <f>(I$2-I14)^2</f>
+        <f t="shared" si="7"/>
         <v>0.3249000000000084</v>
       </c>
       <c r="Z14" s="9">
-        <f>(J$2-J14)^2</f>
+        <f t="shared" si="8"/>
         <v>4.3681000000000143</v>
       </c>
       <c r="AA14" s="9">
-        <f>(K$2-K14)^2</f>
+        <f t="shared" si="9"/>
         <v>10.627599999999941</v>
       </c>
       <c r="AB14" s="9">
-        <f>SUM(S14:AA14)</f>
+        <f t="shared" si="10"/>
         <v>10501.7693</v>
       </c>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-    </row>
-    <row r="15" spans="1:34" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AC14" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AD14" s="25">
+        <v>20</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>24</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>51</v>
       </c>
@@ -3150,76 +3173,88 @@
       <c r="K15" s="26">
         <v>97.55</v>
       </c>
-      <c r="L15" s="31">
-        <f>50*LOG((1+(1/9)*AB15)^(-0.5)*100)</f>
+      <c r="L15" s="29">
+        <f t="shared" si="0"/>
         <v>17.315243887753137</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>35.51136363636364</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>1152.0725788973211</v>
       </c>
       <c r="O15" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>15.589442815249267</v>
       </c>
       <c r="P15" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>122.50798594370841</v>
       </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="9">
-        <f>(C$2-C15)^2</f>
+        <f t="shared" si="1"/>
         <v>5797.2996000000003</v>
       </c>
       <c r="T15" s="9">
-        <f>(D$2-D15)^2</f>
+        <f t="shared" si="2"/>
         <v>5575.6089000000002</v>
       </c>
       <c r="U15" s="9">
-        <f>(E$2-E15)^2</f>
+        <f t="shared" si="3"/>
         <v>3848.961600000001</v>
       </c>
       <c r="V15" s="9">
-        <f>(F$2-F15)^2</f>
+        <f t="shared" si="4"/>
         <v>2084.8355999999999</v>
       </c>
       <c r="W15" s="9">
-        <f>(G$2-G15)^2</f>
+        <f t="shared" si="5"/>
         <v>636.55289999999945</v>
       </c>
       <c r="X15" s="9">
-        <f>(H$2-H15)^2</f>
+        <f t="shared" si="6"/>
         <v>233.47840000000002</v>
       </c>
       <c r="Y15" s="9">
-        <f>(I$2-I15)^2</f>
+        <f t="shared" si="7"/>
         <v>62.568100000000172</v>
       </c>
       <c r="Z15" s="9">
-        <f>(J$2-J15)^2</f>
+        <f t="shared" si="8"/>
         <v>12.959999999999958</v>
       </c>
       <c r="AA15" s="9">
-        <f>(K$2-K15)^2</f>
+        <f t="shared" si="9"/>
         <v>4.2849000000000306</v>
       </c>
       <c r="AB15" s="9">
-        <f>SUM(S15:AA15)</f>
+        <f t="shared" si="10"/>
         <v>18256.55</v>
       </c>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-    </row>
-    <row r="16" spans="1:34" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AC15" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26">
         <v>52</v>
       </c>
@@ -3253,74 +3288,86 @@
       <c r="K16" s="26">
         <v>105.16</v>
       </c>
-      <c r="L16" s="31">
-        <f>50*LOG((1+(1/9)*AB16)^(-0.5)*100)</f>
+      <c r="L16" s="29">
+        <f t="shared" si="0"/>
         <v>18.936775897505413</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>25.773195876288661</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>585.83491857161948</v>
       </c>
       <c r="O16" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>13.813494099538225</v>
       </c>
       <c r="P16" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>86.348397748833193</v>
       </c>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="9">
-        <f>(C$2-C16)^2</f>
+        <f t="shared" si="1"/>
         <v>5596.5361000000003</v>
       </c>
       <c r="T16" s="9">
-        <f>(D$2-D16)^2</f>
+        <f t="shared" si="2"/>
         <v>5063.7455999999993</v>
       </c>
       <c r="U16" s="9">
-        <f>(E$2-E16)^2</f>
+        <f t="shared" si="3"/>
         <v>3146.0881000000004</v>
       </c>
       <c r="V16" s="9">
-        <f>(F$2-F16)^2</f>
+        <f t="shared" si="4"/>
         <v>1528.8099999999995</v>
       </c>
       <c r="W16" s="9">
-        <f>(G$2-G16)^2</f>
+        <f t="shared" si="5"/>
         <v>290.02090000000004</v>
       </c>
       <c r="X16" s="9">
-        <f>(H$2-H16)^2</f>
+        <f t="shared" si="6"/>
         <v>48.441600000000108</v>
       </c>
       <c r="Y16" s="9">
-        <f>(I$2-I16)^2</f>
+        <f t="shared" si="7"/>
         <v>0.15209999999998935</v>
       </c>
       <c r="Z16" s="9">
-        <f>(J$2-J16)^2</f>
+        <f t="shared" si="8"/>
         <v>18.0625</v>
       </c>
       <c r="AA16" s="9">
-        <f>(K$2-K16)^2</f>
+        <f t="shared" si="9"/>
         <v>30.691599999999912</v>
       </c>
       <c r="AB16" s="9">
-        <f>SUM(S16:AA16)</f>
+        <f t="shared" si="10"/>
         <v>15722.548499999999</v>
       </c>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
+      <c r="AC16" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>15</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -3357,15 +3404,15 @@
         <v>106.25</v>
       </c>
       <c r="L17" s="9">
-        <f>50*LOG((1+(1/9)*AB17)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>40.089325572079886</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2.391429118040941</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.67611175415707514</v>
       </c>
       <c r="O17" s="27">
@@ -3373,49 +3420,49 @@
         <v>15.426829268292684</v>
       </c>
       <c r="P17" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>118.93470747222246</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="9">
-        <f>(C$2-C17)^2</f>
+        <f t="shared" si="1"/>
         <v>750.21209999999962</v>
       </c>
       <c r="T17" s="9">
-        <f>(D$2-D17)^2</f>
+        <f t="shared" si="2"/>
         <v>577.92160000000035</v>
       </c>
       <c r="U17" s="9">
-        <f>(E$2-E17)^2</f>
+        <f t="shared" si="3"/>
         <v>416.56810000000041</v>
       </c>
       <c r="V17" s="9">
-        <f>(F$2-F17)^2</f>
+        <f t="shared" si="4"/>
         <v>278.8900000000001</v>
       </c>
       <c r="W17" s="9">
-        <f>(G$2-G17)^2</f>
+        <f t="shared" si="5"/>
         <v>111.93639999999996</v>
       </c>
       <c r="X17" s="9">
-        <f>(H$2-H17)^2</f>
+        <f t="shared" si="6"/>
         <v>30.030400000000043</v>
       </c>
       <c r="Y17" s="9">
-        <f>(I$2-I17)^2</f>
+        <f t="shared" si="7"/>
         <v>0.13689999999999286</v>
       </c>
       <c r="Z17" s="9">
-        <f>(J$2-J17)^2</f>
+        <f t="shared" si="8"/>
         <v>23.522500000000083</v>
       </c>
       <c r="AA17" s="9">
-        <f>(K$2-K17)^2</f>
+        <f t="shared" si="9"/>
         <v>43.956899999999941</v>
       </c>
       <c r="AB17" s="9">
-        <f>SUM(S17:AA17)</f>
+        <f t="shared" si="10"/>
         <v>2233.1749000000004</v>
       </c>
       <c r="AC17" s="10">
@@ -3472,15 +3519,15 @@
         <v>104.77</v>
       </c>
       <c r="L18" s="9">
-        <f>50*LOG((1+(1/9)*AB18)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>53.527090299704064</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.9942565411614548</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.18069944475896144</v>
       </c>
       <c r="O18" s="27">
@@ -3488,49 +3535,49 @@
         <v>8.8912133891213365</v>
       </c>
       <c r="P18" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>19.097801513186006</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="9">
-        <f>(C$2-C18)^2</f>
+        <f t="shared" si="1"/>
         <v>288.32039999999989</v>
       </c>
       <c r="T18" s="9">
-        <f>(D$2-D18)^2</f>
+        <f t="shared" si="2"/>
         <v>159.26440000000011</v>
       </c>
       <c r="U18" s="9">
-        <f>(E$2-E18)^2</f>
+        <f t="shared" si="3"/>
         <v>90.820900000000023</v>
       </c>
       <c r="V18" s="9">
-        <f>(F$2-F18)^2</f>
+        <f t="shared" si="4"/>
         <v>44.622399999999899</v>
       </c>
       <c r="W18" s="9">
-        <f>(G$2-G18)^2</f>
+        <f t="shared" si="5"/>
         <v>9.8596000000000039</v>
       </c>
       <c r="X18" s="9">
-        <f>(H$2-H18)^2</f>
+        <f t="shared" si="6"/>
         <v>0.3249000000000084</v>
       </c>
       <c r="Y18" s="9">
-        <f>(I$2-I18)^2</f>
+        <f t="shared" si="7"/>
         <v>4.243599999999951</v>
       </c>
       <c r="Z18" s="9">
-        <f>(J$2-J18)^2</f>
+        <f t="shared" si="8"/>
         <v>17.388900000000014</v>
       </c>
       <c r="AA18" s="9">
-        <f>(K$2-K18)^2</f>
+        <f t="shared" si="9"/>
         <v>26.522499999999912</v>
       </c>
       <c r="AB18" s="9">
-        <f>SUM(S18:AA18)</f>
+        <f t="shared" si="10"/>
         <v>641.3675999999997</v>
       </c>
       <c r="AC18" s="10">
@@ -3587,15 +3634,15 @@
         <v>101.81</v>
       </c>
       <c r="L19" s="9">
-        <f>50*LOG((1+(1/9)*AB19)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>42.059205107850055</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2.4253007372914244</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.73296160619403328</v>
       </c>
       <c r="O19" s="27">
@@ -3603,49 +3650,49 @@
         <v>13.844936708860764</v>
       </c>
       <c r="P19" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>86.933739977105802</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="9">
-        <f>(C$2-C19)^2</f>
+        <f t="shared" si="1"/>
         <v>790.73439999999982</v>
       </c>
       <c r="T19" s="9">
-        <f>(D$2-D19)^2</f>
+        <f t="shared" si="2"/>
         <v>477.8596</v>
       </c>
       <c r="U19" s="9">
-        <f>(E$2-E19)^2</f>
+        <f t="shared" si="3"/>
         <v>297.5625</v>
       </c>
       <c r="V19" s="9">
-        <f>(F$2-F19)^2</f>
+        <f t="shared" si="4"/>
         <v>186.59559999999991</v>
       </c>
       <c r="W19" s="9">
-        <f>(G$2-G19)^2</f>
+        <f t="shared" si="5"/>
         <v>75.690000000000055</v>
       </c>
       <c r="X19" s="9">
-        <f>(H$2-H19)^2</f>
+        <f t="shared" si="6"/>
         <v>24.601600000000079</v>
       </c>
       <c r="Y19" s="9">
-        <f>(I$2-I19)^2</f>
+        <f t="shared" si="7"/>
         <v>1.9321000000000015</v>
       </c>
       <c r="Z19" s="9">
-        <f>(J$2-J19)^2</f>
+        <f t="shared" si="8"/>
         <v>1.368900000000004</v>
       </c>
       <c r="AA19" s="9">
-        <f>(K$2-K19)^2</f>
+        <f t="shared" si="9"/>
         <v>4.7960999999999903</v>
       </c>
       <c r="AB19" s="9">
-        <f>SUM(S19:AA19)</f>
+        <f t="shared" si="10"/>
         <v>1861.1407999999999</v>
       </c>
       <c r="AC19" s="10">
@@ -3702,15 +3749,15 @@
         <v>106.67</v>
       </c>
       <c r="L20" s="9">
-        <f>50*LOG((1+(1/9)*AB20)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>49.176132138382428</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2.1157752200406228</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.29877839464473854</v>
       </c>
       <c r="O20" s="27">
@@ -3718,49 +3765,49 @@
         <v>9.6498054474708184</v>
       </c>
       <c r="P20" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>26.303514506753796</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="9">
-        <f>(C$2-C20)^2</f>
+        <f t="shared" si="1"/>
         <v>423.53639999999996</v>
       </c>
       <c r="T20" s="9">
-        <f>(D$2-D20)^2</f>
+        <f t="shared" si="2"/>
         <v>231.34410000000025</v>
       </c>
       <c r="U20" s="9">
-        <f>(E$2-E20)^2</f>
+        <f t="shared" si="3"/>
         <v>127.46410000000014</v>
       </c>
       <c r="V20" s="9">
-        <f>(F$2-F20)^2</f>
+        <f t="shared" si="4"/>
         <v>65.286399999999972</v>
       </c>
       <c r="W20" s="9">
-        <f>(G$2-G20)^2</f>
+        <f t="shared" si="5"/>
         <v>10.758400000000007</v>
       </c>
       <c r="X20" s="9">
-        <f>(H$2-H20)^2</f>
+        <f t="shared" si="6"/>
         <v>0.17640000000000144</v>
       </c>
       <c r="Y20" s="9">
-        <f>(I$2-I20)^2</f>
+        <f t="shared" si="7"/>
         <v>15.366399999999903</v>
       </c>
       <c r="Z20" s="9">
-        <f>(J$2-J20)^2</f>
+        <f t="shared" si="8"/>
         <v>38.316100000000148</v>
       </c>
       <c r="AA20" s="9">
-        <f>(K$2-K20)^2</f>
+        <f t="shared" si="9"/>
         <v>49.702499999999958</v>
       </c>
       <c r="AB20" s="9">
-        <f>SUM(S20:AA20)</f>
+        <f t="shared" si="10"/>
         <v>961.95080000000041</v>
       </c>
       <c r="AC20" s="10">
@@ -3782,7 +3829,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26">
         <v>53</v>
       </c>
@@ -3816,76 +3863,88 @@
       <c r="K21" s="26">
         <v>101.07</v>
       </c>
-      <c r="L21" s="31">
-        <f>50*LOG((1+(1/9)*AB21)^(-0.5)*100)</f>
+      <c r="L21" s="29">
+        <f t="shared" si="0"/>
         <v>27.027943909506796</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>9.3984962406015029</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>61.298365539708982</v>
       </c>
       <c r="O21" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>9.9449608610567495</v>
       </c>
       <c r="P21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>29.418155533754259</v>
       </c>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="9">
-        <f>(C$2-C21)^2</f>
+        <f t="shared" si="1"/>
         <v>4403.6495999999997</v>
       </c>
       <c r="T21" s="9">
-        <f>(D$2-D21)^2</f>
+        <f t="shared" si="2"/>
         <v>1838.6944000000003</v>
       </c>
       <c r="U21" s="9">
-        <f>(E$2-E21)^2</f>
+        <f t="shared" si="3"/>
         <v>721.45960000000002</v>
       </c>
       <c r="V21" s="9">
-        <f>(F$2-F21)^2</f>
+        <f t="shared" si="4"/>
         <v>340.40250000000009</v>
       </c>
       <c r="W21" s="9">
-        <f>(G$2-G21)^2</f>
+        <f t="shared" si="5"/>
         <v>107.95210000000002</v>
       </c>
       <c r="X21" s="9">
-        <f>(H$2-H21)^2</f>
+        <f t="shared" si="6"/>
         <v>37.454400000000057</v>
       </c>
       <c r="Y21" s="9">
-        <f>(I$2-I21)^2</f>
+        <f t="shared" si="7"/>
         <v>5.9049000000000333</v>
       </c>
       <c r="Z21" s="9">
-        <f>(J$2-J21)^2</f>
+        <f t="shared" si="8"/>
         <v>1.2099999999999875E-2</v>
       </c>
       <c r="AA21" s="9">
-        <f>(K$2-K21)^2</f>
+        <f t="shared" si="9"/>
         <v>2.1024999999999672</v>
       </c>
       <c r="AB21" s="9">
-        <f>SUM(S21:AA21)</f>
+        <f t="shared" si="10"/>
         <v>7457.6321000000007</v>
       </c>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-    </row>
-    <row r="22" spans="1:34" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AC21" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26">
         <v>54</v>
       </c>
@@ -3919,76 +3978,88 @@
       <c r="K22" s="26">
         <v>108.79</v>
       </c>
-      <c r="L22" s="31">
-        <f>50*LOG((1+(1/9)*AB22)^(-0.5)*100)</f>
+      <c r="L22" s="29">
+        <f t="shared" si="0"/>
         <v>16.201169102542533</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>31.094527363184081</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>871.74678835730663</v>
       </c>
       <c r="O22" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>18.035588442565185</v>
       </c>
       <c r="P22" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>182.64112102336557</v>
       </c>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="9">
-        <f>(C$2-C22)^2</f>
+        <f t="shared" si="1"/>
         <v>5721.4096</v>
       </c>
       <c r="T22" s="9">
-        <f>(D$2-D22)^2</f>
+        <f t="shared" si="2"/>
         <v>5843.0735999999997</v>
       </c>
       <c r="U22" s="9">
-        <f>(E$2-E22)^2</f>
+        <f t="shared" si="3"/>
         <v>4444.8888999999999</v>
       </c>
       <c r="V22" s="9">
-        <f>(F$2-F22)^2</f>
+        <f t="shared" si="4"/>
         <v>2964.8024999999993</v>
       </c>
       <c r="W22" s="9">
-        <f>(G$2-G22)^2</f>
+        <f t="shared" si="5"/>
         <v>992.25</v>
       </c>
       <c r="X22" s="9">
-        <f>(H$2-H22)^2</f>
+        <f t="shared" si="6"/>
         <v>123.21000000000019</v>
       </c>
       <c r="Y22" s="9">
-        <f>(I$2-I22)^2</f>
+        <f t="shared" si="7"/>
         <v>3.8808999999999956</v>
       </c>
       <c r="Z22" s="9">
-        <f>(J$2-J22)^2</f>
+        <f t="shared" si="8"/>
         <v>52.707600000000078</v>
       </c>
       <c r="AA22" s="9">
-        <f>(K$2-K22)^2</f>
+        <f t="shared" si="9"/>
         <v>84.088900000000038</v>
       </c>
       <c r="AB22" s="9">
-        <f>SUM(S22:AA22)</f>
+        <f t="shared" si="10"/>
         <v>20230.311999999998</v>
       </c>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-    </row>
-    <row r="23" spans="1:34" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AC22" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26">
         <v>48</v>
       </c>
@@ -4022,76 +4093,88 @@
       <c r="K23" s="26">
         <v>100.74</v>
       </c>
-      <c r="L23" s="31">
-        <f>50*LOG((1+(1/9)*AB23)^(-0.5)*100)</f>
+      <c r="L23" s="29">
+        <f t="shared" si="0"/>
         <v>31.90456667167717</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6.278252134605725</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>22.175464268931147</v>
       </c>
       <c r="O23" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.4416076845298278</v>
       </c>
       <c r="P23" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>15.37030019392799</v>
       </c>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="9">
-        <f>(C$2-C23)^2</f>
+        <f t="shared" si="1"/>
         <v>3570.0625</v>
       </c>
       <c r="T23" s="9">
-        <f>(D$2-D23)^2</f>
+        <f t="shared" si="2"/>
         <v>880.90239999999994</v>
       </c>
       <c r="U23" s="9">
-        <f>(E$2-E23)^2</f>
+        <f t="shared" si="3"/>
         <v>205.06240000000022</v>
       </c>
       <c r="V23" s="9">
-        <f>(F$2-F23)^2</f>
+        <f t="shared" si="4"/>
         <v>74.304399999999831</v>
       </c>
       <c r="W23" s="9">
-        <f>(G$2-G23)^2</f>
+        <f t="shared" si="5"/>
         <v>18.404099999999932</v>
       </c>
       <c r="X23" s="9">
-        <f>(H$2-H23)^2</f>
+        <f t="shared" si="6"/>
         <v>5.1529000000000469</v>
       </c>
       <c r="Y23" s="9">
-        <f>(I$2-I23)^2</f>
+        <f t="shared" si="7"/>
         <v>0.23040000000000382</v>
       </c>
       <c r="Z23" s="9">
-        <f>(J$2-J23)^2</f>
+        <f t="shared" si="8"/>
         <v>0.59290000000001575</v>
       </c>
       <c r="AA23" s="9">
-        <f>(K$2-K23)^2</f>
+        <f t="shared" si="9"/>
         <v>1.2543999999999784</v>
       </c>
       <c r="AB23" s="9">
-        <f>SUM(S23:AA23)</f>
+        <f t="shared" si="10"/>
         <v>4755.9663999999993</v>
       </c>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-    </row>
-    <row r="24" spans="1:34" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AC23" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>20.93</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26">
         <v>48</v>
       </c>
@@ -4125,74 +4208,86 @@
       <c r="K24" s="26">
         <v>103.33</v>
       </c>
-      <c r="L24" s="31">
-        <f>50*LOG((1+(1/9)*AB24)^(-0.5)*100)</f>
+      <c r="L24" s="29">
+        <f t="shared" si="0"/>
         <v>28.599388122230295</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>8.6206896551724128</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>49.723944000005886</v>
       </c>
       <c r="O24" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.7181467181467198</v>
       </c>
       <c r="P24" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>17.615115178942713</v>
       </c>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="9">
-        <f>(C$2-C24)^2</f>
+        <f t="shared" si="1"/>
         <v>4245.8255999999992</v>
       </c>
       <c r="T24" s="9">
-        <f>(D$2-D24)^2</f>
+        <f t="shared" si="2"/>
         <v>1678.5409000000004</v>
       </c>
       <c r="U24" s="9">
-        <f>(E$2-E24)^2</f>
+        <f t="shared" si="3"/>
         <v>379.86010000000033</v>
       </c>
       <c r="V24" s="9">
-        <f>(F$2-F24)^2</f>
+        <f t="shared" si="4"/>
         <v>107.95210000000002</v>
       </c>
       <c r="W24" s="9">
-        <f>(G$2-G24)^2</f>
+        <f t="shared" si="5"/>
         <v>11.902500000000019</v>
       </c>
       <c r="X24" s="9">
-        <f>(H$2-H24)^2</f>
+        <f t="shared" si="6"/>
         <v>0.13690000000000335</v>
       </c>
       <c r="Y24" s="9">
-        <f>(I$2-I24)^2</f>
+        <f t="shared" si="7"/>
         <v>3.0975999999999679</v>
       </c>
       <c r="Z24" s="9">
-        <f>(J$2-J24)^2</f>
+        <f t="shared" si="8"/>
         <v>10.432900000000025</v>
       </c>
       <c r="AA24" s="9">
-        <f>(K$2-K24)^2</f>
+        <f t="shared" si="9"/>
         <v>13.764099999999953</v>
       </c>
       <c r="AB24" s="9">
-        <f>SUM(S24:AA24)</f>
+        <f t="shared" si="10"/>
         <v>6451.5127000000011</v>
       </c>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
+      <c r="AC24" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>20.93</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
@@ -4229,7 +4324,7 @@
         <v>101.34</v>
       </c>
       <c r="L25" s="9">
-        <f>50*LOG((1+(1/9)*AB25)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>42.049112052961299</v>
       </c>
       <c r="M25" s="4">
@@ -4237,7 +4332,7 @@
         <v>2.5107707036859748</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.88661382843123859</v>
       </c>
       <c r="O25" s="27">
@@ -4245,49 +4340,49 @@
         <v>13.089005235602098</v>
       </c>
       <c r="P25" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>73.408824614934161</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="9">
-        <f>(C$2-C25)^2</f>
+        <f t="shared" si="1"/>
         <v>885.0625</v>
       </c>
       <c r="T25" s="9">
-        <f>(D$2-D25)^2</f>
+        <f t="shared" si="2"/>
         <v>468.72250000000025</v>
       </c>
       <c r="U25" s="9">
-        <f>(E$2-E25)^2</f>
+        <f t="shared" si="3"/>
         <v>261.46890000000008</v>
       </c>
       <c r="V25" s="9">
-        <f>(F$2-F25)^2</f>
+        <f t="shared" si="4"/>
         <v>152.27560000000008</v>
       </c>
       <c r="W25" s="9">
-        <f>(G$2-G25)^2</f>
+        <f t="shared" si="5"/>
         <v>63.520899999999983</v>
       </c>
       <c r="X25" s="9">
-        <f>(H$2-H25)^2</f>
+        <f t="shared" si="6"/>
         <v>24.70089999999999</v>
       </c>
       <c r="Y25" s="9">
-        <f>(I$2-I25)^2</f>
+        <f t="shared" si="7"/>
         <v>3.9204000000000159</v>
       </c>
       <c r="Z25" s="9">
-        <f>(J$2-J25)^2</f>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AA25" s="9">
-        <f>(K$2-K25)^2</f>
+        <f t="shared" si="9"/>
         <v>2.9583999999999961</v>
       </c>
       <c r="AB25" s="9">
-        <f>SUM(S25:AA25)</f>
+        <f t="shared" si="10"/>
         <v>1862.8801000000005</v>
       </c>
       <c r="AC25" s="10">
@@ -4344,7 +4439,7 @@
         <v>96.94</v>
       </c>
       <c r="L26" s="9">
-        <f>50*LOG((1+(1/9)*AB26)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>38.691907228707223</v>
       </c>
       <c r="M26" s="4">
@@ -4352,7 +4447,7 @@
         <v>2.6410121244069584</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>1.1488477516910081</v>
       </c>
       <c r="O26" s="27">
@@ -4360,49 +4455,49 @@
         <v>18.82539682539683</v>
       </c>
       <c r="P26" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>204.61261464916521</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="9">
-        <f>(C$2-C26)^2</f>
+        <f t="shared" si="1"/>
         <v>944.33289999999977</v>
       </c>
       <c r="T26" s="9">
-        <f>(D$2-D26)^2</f>
+        <f t="shared" si="2"/>
         <v>602.70249999999987</v>
       </c>
       <c r="U26" s="9">
-        <f>(E$2-E26)^2</f>
+        <f t="shared" si="3"/>
         <v>407.63609999999989</v>
       </c>
       <c r="V26" s="9">
-        <f>(F$2-F26)^2</f>
+        <f t="shared" si="4"/>
         <v>282.91239999999976</v>
       </c>
       <c r="W26" s="9">
-        <f>(G$2-G26)^2</f>
+        <f t="shared" si="5"/>
         <v>158.00489999999982</v>
       </c>
       <c r="X26" s="9">
-        <f>(H$2-H26)^2</f>
+        <f t="shared" si="6"/>
         <v>85.377600000000172</v>
       </c>
       <c r="Y26" s="9">
-        <f>(I$2-I26)^2</f>
+        <f t="shared" si="7"/>
         <v>38.564100000000096</v>
       </c>
       <c r="Z26" s="9">
-        <f>(J$2-J26)^2</f>
+        <f t="shared" si="8"/>
         <v>14.439999999999978</v>
       </c>
       <c r="AA26" s="9">
-        <f>(K$2-K26)^2</f>
+        <f t="shared" si="9"/>
         <v>7.1824000000000368</v>
       </c>
       <c r="AB26" s="9">
-        <f>SUM(S26:AA26)</f>
+        <f t="shared" si="10"/>
         <v>2541.1529</v>
       </c>
       <c r="AC26" s="10">
@@ -4459,15 +4554,15 @@
         <v>100.65</v>
       </c>
       <c r="L27" s="9">
-        <f>50*LOG((1+(1/9)*AB27)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>63.008378268033695</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.7954610744039068</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5.1208117368902198E-2</v>
       </c>
       <c r="O27" s="27">
@@ -4475,49 +4570,49 @@
         <v>7.4190800681431011</v>
       </c>
       <c r="P27" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>8.3982291110516378</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="9">
-        <f>(C$2-C27)^2</f>
+        <f t="shared" si="1"/>
         <v>100.80159999999984</v>
       </c>
       <c r="T27" s="9">
-        <f>(D$2-D27)^2</f>
+        <f t="shared" si="2"/>
         <v>66.096900000000161</v>
       </c>
       <c r="U27" s="9">
-        <f>(E$2-E27)^2</f>
+        <f t="shared" si="3"/>
         <v>44.622400000000091</v>
       </c>
       <c r="V27" s="9">
-        <f>(F$2-F27)^2</f>
+        <f t="shared" si="4"/>
         <v>30.25</v>
       </c>
       <c r="W27" s="9">
-        <f>(G$2-G27)^2</f>
+        <f t="shared" si="5"/>
         <v>13.912899999999924</v>
       </c>
       <c r="X27" s="9">
-        <f>(H$2-H27)^2</f>
+        <f t="shared" si="6"/>
         <v>4.8841000000000347</v>
       </c>
       <c r="Y27" s="9">
-        <f>(I$2-I27)^2</f>
+        <f t="shared" si="7"/>
         <v>0.54760000000001341</v>
       </c>
       <c r="Z27" s="9">
-        <f>(J$2-J27)^2</f>
+        <f t="shared" si="8"/>
         <v>0.40960000000000074</v>
       </c>
       <c r="AA27" s="9">
-        <f>(K$2-K27)^2</f>
+        <f t="shared" si="9"/>
         <v>1.0609000000000024</v>
       </c>
       <c r="AB27" s="9">
-        <f>SUM(S27:AA27)</f>
+        <f t="shared" si="10"/>
         <v>262.58600000000007</v>
       </c>
       <c r="AC27" s="10">
@@ -4574,65 +4669,65 @@
         <v>102.59</v>
       </c>
       <c r="L28" s="9">
-        <f>50*LOG((1+(1/9)*AB28)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>62.769919137510669</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.8213609208800818</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6.3600781039724164E-2</v>
       </c>
       <c r="O28" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>7.1966205837173556</v>
       </c>
       <c r="P28" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>7.1583555866199537</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="9">
-        <f>(C$2-C28)^2</f>
+        <f t="shared" si="1"/>
         <v>121.66090000000003</v>
       </c>
       <c r="T28" s="9">
-        <f>(D$2-D28)^2</f>
+        <f t="shared" si="2"/>
         <v>66.748900000000035</v>
       </c>
       <c r="U28" s="9">
-        <f>(E$2-E28)^2</f>
+        <f t="shared" si="3"/>
         <v>36.966399999999979</v>
       </c>
       <c r="V28" s="9">
-        <f>(F$2-F28)^2</f>
+        <f t="shared" si="4"/>
         <v>21.436899999999959</v>
       </c>
       <c r="W28" s="9">
-        <f>(G$2-G28)^2</f>
+        <f t="shared" si="5"/>
         <v>5.9048999999999641</v>
       </c>
       <c r="X28" s="9">
-        <f>(H$2-H28)^2</f>
+        <f t="shared" si="6"/>
         <v>0.22089999999999893</v>
       </c>
       <c r="Y28" s="9">
-        <f>(I$2-I28)^2</f>
+        <f t="shared" si="7"/>
         <v>1.1448999999999854</v>
       </c>
       <c r="Z28" s="9">
-        <f>(J$2-J28)^2</f>
+        <f t="shared" si="8"/>
         <v>5.7121000000000031</v>
       </c>
       <c r="AA28" s="9">
-        <f>(K$2-K28)^2</f>
+        <f t="shared" si="9"/>
         <v>8.8208999999999929</v>
       </c>
       <c r="AB28" s="9">
-        <f>SUM(S28:AA28)</f>
+        <f t="shared" si="10"/>
         <v>268.61679999999996</v>
       </c>
       <c r="AC28" s="10">
@@ -4689,15 +4784,15 @@
         <v>105.67</v>
       </c>
       <c r="L29" s="9">
-        <f>50*LOG((1+(1/9)*AB29)^(-0.5)*100)</f>
+        <f t="shared" si="0"/>
         <v>58.474560215039084</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1.9449198693013849</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.14118873974276616</v>
       </c>
       <c r="O29" s="27">
@@ -4705,49 +4800,49 @@
         <v>6.3172966781214202</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.2262857119527593</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9">
-        <f>(C$2-C29)^2</f>
+        <f t="shared" si="1"/>
         <v>236.85210000000001</v>
       </c>
       <c r="T29" s="9">
-        <f>(D$2-D29)^2</f>
+        <f t="shared" si="2"/>
         <v>49.702499999999958</v>
       </c>
       <c r="U29" s="9">
-        <f>(E$2-E29)^2</f>
+        <f t="shared" si="3"/>
         <v>7.5076000000000498</v>
       </c>
       <c r="V29" s="9">
-        <f>(F$2-F29)^2</f>
+        <f t="shared" si="4"/>
         <v>8.4099999999995387E-2</v>
       </c>
       <c r="W29" s="9">
-        <f>(G$2-G29)^2</f>
+        <f t="shared" si="5"/>
         <v>3.9601000000000361</v>
       </c>
       <c r="X29" s="9">
-        <f>(H$2-H29)^2</f>
+        <f t="shared" si="6"/>
         <v>13.764099999999953</v>
       </c>
       <c r="Y29" s="9">
-        <f>(I$2-I29)^2</f>
+        <f t="shared" si="7"/>
         <v>21.808899999999884</v>
       </c>
       <c r="Z29" s="9">
-        <f>(J$2-J29)^2</f>
+        <f t="shared" si="8"/>
         <v>33.0625</v>
       </c>
       <c r="AA29" s="9">
-        <f>(K$2-K29)^2</f>
+        <f t="shared" si="9"/>
         <v>36.602499999999964</v>
       </c>
       <c r="AB29" s="9">
-        <f>SUM(S29:AA29)</f>
+        <f t="shared" si="10"/>
         <v>403.34439999999972</v>
       </c>
       <c r="AC29" s="10">
@@ -4770,15 +4865,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB29" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="D"/>
-        <filter val="DA"/>
-        <filter val="DB"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5452,20 +5539,20 @@
       <c r="D45" s="20"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H19" xr:uid="{C0FED6F3-6CD1-45D6-90F4-A3486256E70D}">
